--- a/tests/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\IO\FsSpreadsheet\tests\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7CB043-58F7-498D-A772-686890315FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64140FFE-95F7-4477-8202-92827B72206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
@@ -76,7 +76,7 @@
     <t>Outer Space</t>
   </si>
   <si>
-    <t>ARCtrl Column2</t>
+    <t xml:space="preserve">ARCtrl Column </t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
     <tableColumn id="2" xr3:uid="{AF5013C7-C714-4444-8A50-9BC69A5FCD46}" name="Strings"/>
     <tableColumn id="3" xr3:uid="{0220EA02-C278-4844-8BB0-A01A5FFCAF29}" name="DateTime"/>
     <tableColumn id="4" xr3:uid="{1055AA42-6413-429F-AEFF-69EEC86BA5A3}" name="ARCtrl Column"/>
-    <tableColumn id="5" xr3:uid="{0078777C-91D5-411D-98A9-96CB97DEE4E5}" name="ARCtrl Column2"/>
+    <tableColumn id="5" xr3:uid="{0078777C-91D5-411D-98A9-96CB97DEE4E5}" name="ARCtrl Column "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -153,7 +153,7 @@
     <tableColumn id="2" xr3:uid="{2EFBA7E3-50D8-4A5C-98F0-4239F95B7232}" name="Strings"/>
     <tableColumn id="3" xr3:uid="{4C949830-6A44-4283-90B5-CD7096A9747D}" name="DateTime"/>
     <tableColumn id="4" xr3:uid="{5386B69A-8A06-47D7-BE06-3C8277111948}" name="ARCtrl Column"/>
-    <tableColumn id="5" xr3:uid="{B550AAE8-E35A-435F-BB42-91A37485FF7B}" name="ARCtrl Column2"/>
+    <tableColumn id="5" xr3:uid="{B550AAE8-E35A-435F-BB42-91A37485FF7B}" name="ARCtrl Column "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,7 +459,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
   <dimension ref="B4:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tests/TestFiles/TestWorkbook_Excel.xlsx
+++ b/tests/TestFiles/TestWorkbook_Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HLWei\source\repos\IO\FsSpreadsheet\tests\TestFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64140FFE-95F7-4477-8202-92827B72206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EE117D-4835-4F86-808D-B1B3BFF52FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D39F27F7-D601-47AA-88F1-83333031ED1D}"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>Numbers</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Hello</t>
-  </si>
-  <si>
-    <t>any</t>
   </si>
   <si>
     <t>(A) This is part 1 of 2</t>
@@ -100,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,17 +105,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -151,7 +194,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{346005A6-836C-4746-A330-D49033DC5AEA}" name="Numbers"/>
     <tableColumn id="2" xr3:uid="{2EFBA7E3-50D8-4A5C-98F0-4239F95B7232}" name="Strings"/>
-    <tableColumn id="3" xr3:uid="{4C949830-6A44-4283-90B5-CD7096A9747D}" name="DateTime"/>
+    <tableColumn id="3" xr3:uid="{4C949830-6A44-4283-90B5-CD7096A9747D}" name="DateTime" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{5386B69A-8A06-47D7-BE06-3C8277111948}" name="ARCtrl Column"/>
     <tableColumn id="5" xr3:uid="{B550AAE8-E35A-435F-BB42-91A37485FF7B}" name="ARCtrl Column "/>
   </tableColumns>
@@ -459,7 +502,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -493,14 +536,14 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4">
+        <v>45213</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>45214</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45215</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45216</v>
       </c>
     </row>
   </sheetData>
@@ -549,10 +592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C74DDE2-CDF5-40D3-9F40-97EED0BE5279}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -581,14 +624,14 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5">
+        <v>45213</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,13 +639,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45214</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,11 +653,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="5">
+        <v>45216</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -625,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053D9FAE-57A3-47F3-B8B0-88F62793F167}">
   <dimension ref="B4:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -655,14 +711,14 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4">
+        <v>45213</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
@@ -670,13 +726,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45214</v>
+      </c>
+      <c r="F6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -684,10 +740,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45215</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -695,10 +751,10 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45216</v>
       </c>
     </row>
   </sheetData>
